--- a/biology/Mycologie/Prochloraze/Prochloraze.xlsx
+++ b/biology/Mycologie/Prochloraze/Prochloraze.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le prochloraze est une molécule utilisée comme fongicide, de la famille des imidazoles.
@@ -512,9 +524,11 @@
           <t>Synthèse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le prochloraze peut être obtenu en plusieurs étapes. Dans un premier temps, le 2,4,6-trichlorophénol est alkylé avec du 1,2-dibromoéthane dans une synthèse d'éther de Williamson. La réaction suivante avec la propylamine (CH3CH2CH2NH2) fournit une amine secondaire qui est amenée à réagir en plus avec du phosgène ((CH2)2C=O). Ce chlorure d'acide d'un acide carbamique est finalement mis à réagir avec l'imidazole et permet ainsi d'obtenir le prochloraze[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le prochloraze peut être obtenu en plusieurs étapes. Dans un premier temps, le 2,4,6-trichlorophénol est alkylé avec du 1,2-dibromoéthane dans une synthèse d'éther de Williamson. La réaction suivante avec la propylamine (CH3CH2CH2NH2) fournit une amine secondaire qui est amenée à réagir en plus avec du phosgène ((CH2)2C=O). Ce chlorure d'acide d'un acide carbamique est finalement mis à réagir avec l'imidazole et permet ainsi d'obtenir le prochloraze.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Toxicologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le prochloraze présente une activité de perturbateur endocrinien. Il montre des effets anti-androgéniques, par liaison antagoniste au récepteur des androgènes, et anti-œstrogéniques, conduisant à une féminisation des rats mâles exposés in utero[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le prochloraze présente une activité de perturbateur endocrinien. Il montre des effets anti-androgéniques, par liaison antagoniste au récepteur des androgènes, et anti-œstrogéniques, conduisant à une féminisation des rats mâles exposés in utero.
 </t>
         </is>
       </c>
